--- a/Nutrition Project/data.xlsx
+++ b/Nutrition Project/data.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Flutter\Nutrition Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0845CCC5-CED6-49C9-92FC-72CA0AB67E1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286F5B5-E28B-4B18-831C-48C7E4A1276F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{ACE0F910-7D25-4D39-B675-4356F4C555A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="836" activeTab="7" xr2:uid="{ACE0F910-7D25-4D39-B675-4356F4C555A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="ITMMAS" sheetId="1" r:id="rId1"/>
-    <sheet name="ITMNAM" sheetId="2" r:id="rId2"/>
-    <sheet name="ITMSPEC" sheetId="3" r:id="rId3"/>
+    <sheet name="ORNMAS" sheetId="6" r:id="rId1"/>
+    <sheet name="ORNLANG" sheetId="7" r:id="rId2"/>
+    <sheet name="ORNMAPPING" sheetId="8" r:id="rId3"/>
     <sheet name="ITMNUTRTN" sheetId="4" r:id="rId4"/>
-    <sheet name="ITMSIDEFF" sheetId="5" r:id="rId5"/>
-    <sheet name="工作表6" sheetId="6" r:id="rId6"/>
+    <sheet name="ITMMAS" sheetId="1" r:id="rId5"/>
+    <sheet name="ITMNAM" sheetId="2" r:id="rId6"/>
+    <sheet name="ITMSPEC" sheetId="3" r:id="rId7"/>
+    <sheet name="ITMSIDEFF" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="107">
   <si>
     <t>ITMITMNO</t>
   </si>
@@ -202,6 +204,190 @@
   <si>
     <t>Cardamom, seeds, ground</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORNCD</t>
+  </si>
+  <si>
+    <t>ORNCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORNSEQ</t>
+  </si>
+  <si>
+    <t>ORNLANG</t>
+  </si>
+  <si>
+    <t>ORNNAM</t>
+  </si>
+  <si>
+    <t>ORNSPEC</t>
+  </si>
+  <si>
+    <t>ORNIMG</t>
+  </si>
+  <si>
+    <t>Brain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑</t>
+  </si>
+  <si>
+    <t>brain.jpg</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye.jpg</t>
+  </si>
+  <si>
+    <t>Ear</t>
+  </si>
+  <si>
+    <t>耳朵</t>
+  </si>
+  <si>
+    <t>Ear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ear.jpg</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>鼻子</t>
+  </si>
+  <si>
+    <t>nose.jpg</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>心臟</t>
+  </si>
+  <si>
+    <t>心臟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脏</t>
+  </si>
+  <si>
+    <t>心脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart.jpg</t>
+  </si>
+  <si>
+    <t>heart.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lung</t>
+  </si>
+  <si>
+    <t>Lung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺</t>
+  </si>
+  <si>
+    <t>肺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lung.jpg</t>
+  </si>
+  <si>
+    <t>lung.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small intestine</t>
+  </si>
+  <si>
+    <t>小腸</t>
+  </si>
+  <si>
+    <t>小肠</t>
+  </si>
+  <si>
+    <t>Large intestine</t>
+  </si>
+  <si>
+    <t>大腸</t>
+  </si>
+  <si>
+    <t>大肠</t>
+  </si>
+  <si>
+    <t>L-Intestine.jpg</t>
+  </si>
+  <si>
+    <t>S-Intestine.jpg</t>
+  </si>
+  <si>
+    <t>Kidney</t>
+  </si>
+  <si>
+    <t>腎臟</t>
+  </si>
+  <si>
+    <t>肾脏</t>
+  </si>
+  <si>
+    <t>kidney.jpg</t>
+  </si>
+  <si>
+    <t>Stomach</t>
+  </si>
+  <si>
+    <t>stomach.jpg</t>
+  </si>
+  <si>
+    <t>胃</t>
+  </si>
+  <si>
+    <t>bladder.jpg</t>
+  </si>
+  <si>
+    <t>膀胱</t>
+  </si>
+  <si>
+    <t>Bladder</t>
+  </si>
+  <si>
+    <t>Bladder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITMNO</t>
+  </si>
+  <si>
+    <t>OGNCD</t>
   </si>
 </sst>
 </file>
@@ -279,23 +465,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -612,6 +792,802 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79436BE-22C3-4E9C-8B95-F01314E31E54}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB32A9C-93BA-4EAD-A573-EDADDA2A390F}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA03F96A-9788-4E2D-A6FA-F72AC0C6E558}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C57C0ED-EEFD-4537-B2E5-3CEDAB6FADF7}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0151B0-8275-4844-B05D-E21FD44A5D9F}">
   <dimension ref="A1:R8"/>
   <sheetViews>
@@ -737,7 +1713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14458599-223D-4933-8998-082181080D24}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -772,10 +1748,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
@@ -783,10 +1759,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
@@ -794,10 +1770,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C4" t="s">
@@ -805,10 +1781,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C5" t="s">
@@ -816,10 +1792,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
@@ -827,10 +1803,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
@@ -838,10 +1814,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
@@ -855,11 +1831,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17958D89-2E0A-40BE-98B1-DCB5654B494C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -890,10 +1866,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
@@ -901,10 +1877,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
@@ -912,10 +1888,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
@@ -923,10 +1899,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C5" t="s">
@@ -934,10 +1910,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
@@ -945,10 +1921,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
@@ -956,10 +1932,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
@@ -972,71 +1948,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C57C0ED-EEFD-4537-B2E5-3CEDAB6FADF7}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8609617-E1C8-440B-BF01-0F000FB0B06C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1044,17 +1961,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79436BE-22C3-4E9C-8B95-F01314E31E54}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>